--- a/datetime.xlsx
+++ b/datetime.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>date_stamp</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>fmt2</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -95,9 +98,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyymmdd"/>
-    <numFmt numFmtId="166" formatCode="yyyymmddhhmm"/>
-    <numFmt numFmtId="168" formatCode="d/m/yy"/>
-    <numFmt numFmtId="169" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyymmddhhmm"/>
+    <numFmt numFmtId="166" formatCode="d/m/yy"/>
+    <numFmt numFmtId="167" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -132,9 +135,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J3" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,7 +428,7 @@
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,40 +457,43 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f ca="1">RANDBETWEEN(DATE(2015,1,1),DATE(2017,10,31))</f>
-        <v>43026</v>
+        <v>42883</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">TEXT(C2,"yyyy-mm-dd")</f>
-        <v>2017-10-18</v>
+        <f t="shared" ref="B2:B11" ca="1" si="0">TEXT(C2,"yyyy-mm-dd")</f>
+        <v>2017-05-28</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">G2</f>
-        <v>43026</v>
+        <f t="shared" ref="C2:C11" ca="1" si="1">G2</f>
+        <v>42883</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">A2+RAND()</f>
-        <v>43026.726630218996</v>
+        <v>42883.378794696102</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">TIME(RANDBETWEEN(1,23),RANDBETWEEN(1,59),0)</f>
-        <v>0.83472222222222225</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(C2,"yyyy-mm")</f>
-        <v>2017-10</v>
+        <v>2017-05</v>
       </c>
       <c r="G2" s="5">
-        <f ca="1">A2</f>
-        <v>43026</v>
+        <f t="shared" ref="G2:G11" ca="1" si="2">A2</f>
+        <v>42883</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -495,42 +501,46 @@
       <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <f ca="1">RANDBETWEEN(30,50)</f>
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="b">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A11" ca="1" si="0">RANDBETWEEN(DATE(2015,1,1),DATE(2017,10,31))</f>
-        <v>42652</v>
+        <f t="shared" ref="A3:A11" ca="1" si="3">RANDBETWEEN(DATE(2015,1,1),DATE(2017,10,31))</f>
+        <v>42367</v>
       </c>
       <c r="B3" t="str">
-        <f ca="1">TEXT(C3,"yyyy-mm-dd")</f>
-        <v>2016-10-09</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2015-12-29</v>
       </c>
       <c r="C3" s="1">
-        <f ca="1">G3</f>
-        <v>42652</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42367</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D11" ca="1" si="1">A3+RAND()</f>
-        <v>42652.626043510274</v>
+        <f t="shared" ref="D3:D11" ca="1" si="4">A3+RAND()</f>
+        <v>42367.026708916113</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E11" ca="1" si="2">TIME(RANDBETWEEN(1,23),RANDBETWEEN(1,59),0)</f>
-        <v>0.80208333333333337</v>
+        <f t="shared" ref="E3:E11" ca="1" si="5">TIME(RANDBETWEEN(1,23),RANDBETWEEN(1,59),0)</f>
+        <v>0.17708333333333334</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F11" ca="1" si="3">TEXT(C3,"yyyy-mm")</f>
-        <v>2016-10</v>
+        <f t="shared" ref="F3:F11" ca="1" si="6">TEXT(C3,"yyyy-mm")</f>
+        <v>2015-12</v>
       </c>
       <c r="G3" s="5">
-        <f ca="1">A3</f>
-        <v>42652</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42367</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -538,42 +548,46 @@
       <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <f t="shared" ref="J3:J11" ca="1" si="7">RANDBETWEEN(30,50)</f>
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="b">
-        <f t="shared" ref="K3:K11" ca="1" si="4">CHOOSE(RANDBETWEEN(1,2),TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="b">
+        <f t="shared" ref="L3:L11" ca="1" si="8">CHOOSE(RANDBETWEEN(1,2),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42260</v>
+      </c>
+      <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42016</v>
-      </c>
-      <c r="B4" t="str">
-        <f ca="1">TEXT(C4,"yyyy-mm-dd")</f>
-        <v>2015-01-12</v>
+        <v>2015-09-13</v>
       </c>
       <c r="C4" s="1">
-        <f ca="1">G4</f>
-        <v>42016</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42260</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>42016.335339193894</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>42260.463455714009</v>
       </c>
       <c r="E4" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2015-09</v>
+      </c>
+      <c r="G4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93680555555555556</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2015-01</v>
-      </c>
-      <c r="G4" s="5">
-        <f ca="1">A4</f>
-        <v>42016</v>
+        <v>42260</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -581,42 +595,46 @@
       <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <f t="shared" ca="1" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="b">
+      <c r="L4" t="b">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42352</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2015-12-14</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>42352</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>42526</v>
-      </c>
-      <c r="B5" t="str">
-        <f ca="1">TEXT(C5,"yyyy-mm-dd")</f>
-        <v>2016-06-05</v>
-      </c>
-      <c r="C5" s="1">
-        <f ca="1">G5</f>
-        <v>42526</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>42526.15748246375</v>
+        <v>42352.002024156012</v>
       </c>
       <c r="E5" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2015-12</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73125000000000007</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2016-06</v>
-      </c>
-      <c r="G5" s="5">
-        <f ca="1">A5</f>
-        <v>42526</v>
+        <v>42352</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -624,42 +642,46 @@
       <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <f t="shared" ca="1" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" t="b">
+      <c r="L5" t="b">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42323</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2015-11-15</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>42323</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>42705</v>
-      </c>
-      <c r="B6" t="str">
-        <f ca="1">TEXT(C6,"yyyy-mm-dd")</f>
-        <v>2016-12-01</v>
-      </c>
-      <c r="C6" s="1">
-        <f ca="1">G6</f>
-        <v>42705</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>42705.575262123195</v>
+        <v>42323.161931456962</v>
       </c>
       <c r="E6" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2015-11</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65694444444444444</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2016-12</v>
-      </c>
-      <c r="G6" s="5">
-        <f ca="1">A6</f>
-        <v>42705</v>
+        <v>42323</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -667,42 +689,46 @@
       <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <f t="shared" ca="1" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" t="b">
+      <c r="L6" t="b">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42297</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2015-10-20</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>42297</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>42578</v>
-      </c>
-      <c r="B7" t="str">
-        <f ca="1">TEXT(C7,"yyyy-mm-dd")</f>
-        <v>2016-07-27</v>
-      </c>
-      <c r="C7" s="1">
-        <f ca="1">G7</f>
-        <v>42578</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>42578.801676506038</v>
+        <v>42297.811657629056</v>
       </c>
       <c r="E7" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2015-10</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5805555555555556</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2016-07</v>
-      </c>
-      <c r="G7" s="5">
-        <f ca="1">A7</f>
-        <v>42578</v>
+        <v>42297</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -710,42 +736,46 @@
       <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
         <v>6</v>
       </c>
-      <c r="K7" t="b">
+      <c r="L7" t="b">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42824</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2017-03-30</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>42824</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>42743</v>
-      </c>
-      <c r="B8" t="str">
-        <f ca="1">TEXT(C8,"yyyy-mm-dd")</f>
-        <v>2017-01-08</v>
-      </c>
-      <c r="C8" s="1">
-        <f ca="1">G8</f>
-        <v>42743</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>42743.22874056358</v>
+        <v>42824.323103176575</v>
       </c>
       <c r="E8" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2017-03</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2017-01</v>
-      </c>
-      <c r="G8" s="5">
-        <f ca="1">A8</f>
-        <v>42743</v>
+        <v>42824</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -753,42 +783,46 @@
       <c r="I8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <f t="shared" ca="1" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" t="b">
+      <c r="L8" t="b">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42551</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2016-06-30</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>42551</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>42714</v>
-      </c>
-      <c r="B9" t="str">
-        <f ca="1">TEXT(C9,"yyyy-mm-dd")</f>
-        <v>2016-12-10</v>
-      </c>
-      <c r="C9" s="1">
-        <f ca="1">G9</f>
-        <v>42714</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>42714.26547026584</v>
+        <v>42551.902735010175</v>
       </c>
       <c r="E9" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2016-06</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2016-12</v>
-      </c>
-      <c r="G9" s="5">
-        <f ca="1">A9</f>
-        <v>42714</v>
+        <v>42551</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -796,42 +830,46 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <f t="shared" ca="1" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" t="b">
+      <c r="L9" t="b">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42733</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2016-12-29</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>42733</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>42086</v>
-      </c>
-      <c r="B10" t="str">
-        <f ca="1">TEXT(C10,"yyyy-mm-dd")</f>
-        <v>2015-03-23</v>
-      </c>
-      <c r="C10" s="1">
-        <f ca="1">G10</f>
-        <v>42086</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>42086.819280227981</v>
+        <v>42733.452391370323</v>
       </c>
       <c r="E10" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2016-12</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8222222222222223</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2015-03</v>
-      </c>
-      <c r="G10" s="5">
-        <f ca="1">A10</f>
-        <v>42086</v>
+        <v>42733</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -839,42 +877,46 @@
       <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <f t="shared" ca="1" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
         <v>6</v>
       </c>
-      <c r="K10" t="b">
+      <c r="L10" t="b">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>42138</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2015-05-14</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>42138</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>42729</v>
-      </c>
-      <c r="B11" t="str">
-        <f ca="1">TEXT(C11,"yyyy-mm-dd")</f>
-        <v>2016-12-25</v>
-      </c>
-      <c r="C11" s="1">
-        <f ca="1">G11</f>
-        <v>42729</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>42729.214098092947</v>
+        <v>42138.078753482674</v>
       </c>
       <c r="E11" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>2015-05</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17013888888888887</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2016-12</v>
-      </c>
-      <c r="G11" s="5">
-        <f ca="1">A11</f>
-        <v>42729</v>
+        <v>42138</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
@@ -882,11 +924,15 @@
       <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <f t="shared" ca="1" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
         <v>6</v>
       </c>
-      <c r="K11" t="b">
-        <f t="shared" ca="1" si="4"/>
+      <c r="L11" t="b">
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
     </row>

--- a/datetime.xlsx
+++ b/datetime.xlsx
@@ -92,23 +92,24 @@
     <t>d</t>
   </si>
   <si>
-    <t>fmt3</t>
-  </si>
-  <si>
     <t>date_stamp2</t>
+  </si>
+  <si>
+    <t>ym</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="yyyymmdd"/>
     <numFmt numFmtId="165" formatCode="yyyymmddhhmm"/>
     <numFmt numFmtId="166" formatCode="d/m/yy"/>
     <numFmt numFmtId="167" formatCode="dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="170" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="d\-m\-yy"/>
+    <numFmt numFmtId="168" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="d\-m\-yy"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -139,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -147,8 +148,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,14 +431,14 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:P11"/>
+      <selection activeCell="K2" sqref="A1:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17" customWidth="1"/>
-    <col min="4" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,28 +447,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
@@ -493,43 +495,43 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <f ca="1">RANDBETWEEN(DATE(2015,1,1),DATE(2017,10,31))</f>
-        <v>42121</v>
+        <v>42475</v>
       </c>
       <c r="B2" s="8">
         <f ca="1">A2</f>
-        <v>42121</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C11" ca="1" si="0">TEXT(D2,"yyyy-mm-dd")</f>
-        <v>2015-04-27</v>
-      </c>
-      <c r="D2" s="1">
-        <f ca="1">G2</f>
-        <v>42121</v>
-      </c>
-      <c r="E2" s="3">
+        <v>42475</v>
+      </c>
+      <c r="C2" s="9">
+        <f ca="1">A2</f>
+        <v>42475</v>
+      </c>
+      <c r="D2" s="5">
+        <f ca="1">A2</f>
+        <v>42475</v>
+      </c>
+      <c r="E2" s="7">
+        <f ca="1">A2</f>
+        <v>42475</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">TEXT(G2,"yyyy-mm")</f>
+        <v>2016-04</v>
+      </c>
+      <c r="G2" s="1">
+        <f ca="1">A2</f>
+        <v>42475</v>
+      </c>
+      <c r="H2" s="3">
         <f ca="1">A2+RAND()</f>
-        <v>42121.108561889152</v>
-      </c>
-      <c r="F2" s="2">
+        <v>42475.631658285667</v>
+      </c>
+      <c r="I2" s="2">
         <f ca="1">TIME(RANDBETWEEN(1,23),RANDBETWEEN(1,59),0)</f>
-        <v>0.27638888888888885</v>
-      </c>
-      <c r="G2" s="5">
-        <f ca="1">A2</f>
-        <v>42121</v>
-      </c>
-      <c r="H2" s="7">
-        <f ca="1">G2</f>
-        <v>42121</v>
-      </c>
-      <c r="I2" t="str">
-        <f ca="1">TEXT(D2,"yyyy-mm")</f>
-        <v>2015-04</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J2" s="6">
         <f ca="1">YEAR(A2)</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="K2" s="6">
         <f ca="1">MONTH(A2)</f>
@@ -537,7 +539,7 @@
       </c>
       <c r="L2" s="6">
         <f ca="1">DAY(A2)</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
         <v>3</v>
@@ -547,7 +549,7 @@
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(30,50)</f>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P2" t="b">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),TRUE,FALSE)</f>
@@ -556,52 +558,52 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <f t="shared" ref="A3:A11" ca="1" si="1">RANDBETWEEN(DATE(2015,1,1),DATE(2017,10,31))</f>
-        <v>42323</v>
+        <f t="shared" ref="A3:A11" ca="1" si="0">RANDBETWEEN(DATE(2015,1,1),DATE(2017,10,31))</f>
+        <v>42661</v>
       </c>
       <c r="B3" s="8">
-        <f t="shared" ref="B3:B11" ca="1" si="2">A3</f>
-        <v>42323</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2015-11-15</v>
-      </c>
-      <c r="D3" s="1">
-        <f ca="1">G3</f>
-        <v>42323</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E11" ca="1" si="3">A3+RAND()</f>
-        <v>42323.118711092517</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F11" ca="1" si="4">TIME(RANDBETWEEN(1,23),RANDBETWEEN(1,59),0)</f>
-        <v>0.27847222222222223</v>
-      </c>
-      <c r="G3" s="5">
+        <f t="shared" ref="B3:B11" ca="1" si="1">A3</f>
+        <v>42661</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C11" ca="1" si="2">A3</f>
+        <v>42661</v>
+      </c>
+      <c r="D3" s="5">
         <f ca="1">A3</f>
-        <v>42323</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H11" ca="1" si="5">G3</f>
-        <v>42323</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I11" ca="1" si="6">TEXT(D3,"yyyy-mm")</f>
-        <v>2015-11</v>
+        <v>42661</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E11" ca="1" si="3">A3</f>
+        <v>42661</v>
+      </c>
+      <c r="F3" t="str">
+        <f ca="1">TEXT(G3,"yyyy-mm")</f>
+        <v>2016-10</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" ca="1" si="4">A3</f>
+        <v>42661</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H11" ca="1" si="5">A3+RAND()</f>
+        <v>42661.079888680892</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I11" ca="1" si="6">TIME(RANDBETWEEN(1,23),RANDBETWEEN(1,59),0)</f>
+        <v>0.3444444444444445</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J11" ca="1" si="7">YEAR(A3)</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" ref="K3:K11" ca="1" si="8">MONTH(A3)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ref="L3:L11" ca="1" si="9">DAY(A3)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
         <v>5</v>
@@ -611,61 +613,61 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O11" ca="1" si="10">RANDBETWEEN(30,50)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P3" t="b">
         <f t="shared" ref="P3:P11" ca="1" si="11">CHOOSE(RANDBETWEEN(1,2),TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42919</v>
+      </c>
+      <c r="B4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>42711</v>
-      </c>
-      <c r="B4" s="8">
+        <v>42919</v>
+      </c>
+      <c r="C4" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42711</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2016-12-07</v>
-      </c>
-      <c r="D4" s="1">
-        <f ca="1">G4</f>
-        <v>42711</v>
-      </c>
-      <c r="E4" s="3">
+        <v>42919</v>
+      </c>
+      <c r="D4" s="5">
+        <f ca="1">A4</f>
+        <v>42919</v>
+      </c>
+      <c r="E4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>42711.054174906851</v>
-      </c>
-      <c r="F4" s="2">
+        <v>42919</v>
+      </c>
+      <c r="F4" t="str">
+        <f ca="1">TEXT(G4,"yyyy-mm")</f>
+        <v>2017-07</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62638888888888888</v>
-      </c>
-      <c r="G4" s="5">
-        <f ca="1">A4</f>
-        <v>42711</v>
-      </c>
-      <c r="H4" s="7">
+        <v>42919</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>42711</v>
-      </c>
-      <c r="I4" t="str">
+        <v>42919.610871697172</v>
+      </c>
+      <c r="I4" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2016-12</v>
+        <v>0.12847222222222224</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
@@ -675,49 +677,49 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P4" t="b">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42047</v>
+      </c>
+      <c r="B5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>42329</v>
-      </c>
-      <c r="B5" s="8">
+        <v>42047</v>
+      </c>
+      <c r="C5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42329</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2015-11-21</v>
-      </c>
-      <c r="D5" s="1">
-        <f ca="1">G5</f>
-        <v>42329</v>
-      </c>
-      <c r="E5" s="3">
+        <v>42047</v>
+      </c>
+      <c r="D5" s="5">
+        <f ca="1">A5</f>
+        <v>42047</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>42329.229660965109</v>
-      </c>
-      <c r="F5" s="2">
+        <v>42047</v>
+      </c>
+      <c r="F5" t="str">
+        <f ca="1">TEXT(G5,"yyyy-mm")</f>
+        <v>2015-02</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="G5" s="5">
-        <f ca="1">A5</f>
-        <v>42329</v>
-      </c>
-      <c r="H5" s="7">
+        <v>42047</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>42329</v>
-      </c>
-      <c r="I5" t="str">
+        <v>42047.203602685018</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2015-11</v>
+        <v>0.37291666666666662</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" ca="1" si="7"/>
@@ -725,11 +727,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>3</v>
@@ -739,49 +741,49 @@
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="10"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P5" t="b">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42193</v>
+      </c>
+      <c r="B6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>42246</v>
-      </c>
-      <c r="B6" s="8">
+        <v>42193</v>
+      </c>
+      <c r="C6" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42246</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2015-08-30</v>
-      </c>
-      <c r="D6" s="1">
-        <f ca="1">G6</f>
-        <v>42246</v>
-      </c>
-      <c r="E6" s="3">
+        <v>42193</v>
+      </c>
+      <c r="D6" s="5">
+        <f ca="1">A6</f>
+        <v>42193</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>42246.61408524611</v>
-      </c>
-      <c r="F6" s="2">
+        <v>42193</v>
+      </c>
+      <c r="F6" t="str">
+        <f ca="1">TEXT(G6,"yyyy-mm")</f>
+        <v>2015-07</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69652777777777775</v>
-      </c>
-      <c r="G6" s="5">
-        <f ca="1">A6</f>
-        <v>42246</v>
-      </c>
-      <c r="H6" s="7">
+        <v>42193</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>42246</v>
-      </c>
-      <c r="I6" t="str">
+        <v>42193.396989660578</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2015-08</v>
+        <v>0.65694444444444444</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" ca="1" si="7"/>
@@ -789,11 +791,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
         <v>3</v>
@@ -803,7 +805,7 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" t="b">
         <f t="shared" ca="1" si="11"/>
@@ -812,52 +814,52 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42292</v>
+      </c>
+      <c r="B7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>42711</v>
-      </c>
-      <c r="B7" s="8">
+        <v>42292</v>
+      </c>
+      <c r="C7" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42711</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2016-12-07</v>
-      </c>
-      <c r="D7" s="1">
-        <f ca="1">G7</f>
-        <v>42711</v>
-      </c>
-      <c r="E7" s="3">
+        <v>42292</v>
+      </c>
+      <c r="D7" s="5">
+        <f ca="1">A7</f>
+        <v>42292</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>42711.146346820911</v>
-      </c>
-      <c r="F7" s="2">
+        <v>42292</v>
+      </c>
+      <c r="F7" t="str">
+        <f ca="1">TEXT(G7,"yyyy-mm")</f>
+        <v>2015-10</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="G7" s="5">
-        <f ca="1">A7</f>
-        <v>42711</v>
-      </c>
-      <c r="H7" s="7">
+        <v>42292</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>42711</v>
-      </c>
-      <c r="I7" t="str">
+        <v>42292.717199260864</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2016-12</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
@@ -867,61 +869,61 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" t="b">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42251</v>
+      </c>
+      <c r="B8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>42396</v>
-      </c>
-      <c r="B8" s="8">
+        <v>42251</v>
+      </c>
+      <c r="C8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42396</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2016-01-27</v>
-      </c>
-      <c r="D8" s="1">
-        <f ca="1">G8</f>
-        <v>42396</v>
-      </c>
-      <c r="E8" s="3">
+        <v>42251</v>
+      </c>
+      <c r="D8" s="5">
+        <f ca="1">A8</f>
+        <v>42251</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>42396.786664681713</v>
-      </c>
-      <c r="F8" s="2">
+        <v>42251</v>
+      </c>
+      <c r="F8" t="str">
+        <f ca="1">TEXT(G8,"yyyy-mm")</f>
+        <v>2015-09</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70694444444444438</v>
-      </c>
-      <c r="G8" s="5">
-        <f ca="1">A8</f>
-        <v>42396</v>
-      </c>
-      <c r="H8" s="7">
+        <v>42251</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>42396</v>
-      </c>
-      <c r="I8" t="str">
+        <v>42251.776149225065</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2016-01</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
@@ -931,61 +933,61 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P8" t="b">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42793</v>
+      </c>
+      <c r="B9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>42654</v>
-      </c>
-      <c r="B9" s="8">
+        <v>42793</v>
+      </c>
+      <c r="C9" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42654</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2016-10-11</v>
-      </c>
-      <c r="D9" s="1">
-        <f ca="1">G9</f>
-        <v>42654</v>
-      </c>
-      <c r="E9" s="3">
+        <v>42793</v>
+      </c>
+      <c r="D9" s="5">
+        <f ca="1">A9</f>
+        <v>42793</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>42654.930325780995</v>
-      </c>
-      <c r="F9" s="2">
+        <v>42793</v>
+      </c>
+      <c r="F9" t="str">
+        <f ca="1">TEXT(G9,"yyyy-mm")</f>
+        <v>2017-02</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35972222222222222</v>
-      </c>
-      <c r="G9" s="5">
-        <f ca="1">A9</f>
-        <v>42654</v>
-      </c>
-      <c r="H9" s="7">
+        <v>42793</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>42654</v>
-      </c>
-      <c r="I9" t="str">
+        <v>42793.476066516982</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2016-10</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
         <v>3</v>
@@ -995,61 +997,61 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="P9" t="b">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42378</v>
+      </c>
+      <c r="B10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>42355</v>
-      </c>
-      <c r="B10" s="8">
+        <v>42378</v>
+      </c>
+      <c r="C10" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42355</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2015-12-17</v>
-      </c>
-      <c r="D10" s="1">
-        <f ca="1">G10</f>
-        <v>42355</v>
-      </c>
-      <c r="E10" s="3">
+        <v>42378</v>
+      </c>
+      <c r="D10" s="5">
+        <f ca="1">A10</f>
+        <v>42378</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>42355.430539682915</v>
-      </c>
-      <c r="F10" s="2">
+        <v>42378</v>
+      </c>
+      <c r="F10" t="str">
+        <f ca="1">TEXT(G10,"yyyy-mm")</f>
+        <v>2016-01</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="G10" s="5">
-        <f ca="1">A10</f>
-        <v>42355</v>
-      </c>
-      <c r="H10" s="7">
+        <v>42378</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>42355</v>
-      </c>
-      <c r="I10" t="str">
+        <v>42378.986533261406</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2015-12</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
         <v>5</v>
@@ -1059,7 +1061,7 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P10" t="b">
         <f t="shared" ca="1" si="11"/>
@@ -1068,40 +1070,40 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42353</v>
+      </c>
+      <c r="B11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>42294</v>
-      </c>
-      <c r="B11" s="8">
+        <v>42353</v>
+      </c>
+      <c r="C11" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>42294</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2015-10-17</v>
-      </c>
-      <c r="D11" s="1">
-        <f ca="1">G11</f>
-        <v>42294</v>
-      </c>
-      <c r="E11" s="3">
+        <v>42353</v>
+      </c>
+      <c r="D11" s="5">
+        <f ca="1">A11</f>
+        <v>42353</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>42294.126048613158</v>
-      </c>
-      <c r="F11" s="2">
+        <v>42353</v>
+      </c>
+      <c r="F11" t="str">
+        <f ca="1">TEXT(G11,"yyyy-mm")</f>
+        <v>2015-12</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G11" s="5">
-        <f ca="1">A11</f>
-        <v>42294</v>
-      </c>
-      <c r="H11" s="7">
+        <v>42353</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>42294</v>
-      </c>
-      <c r="I11" t="str">
+        <v>42353.283474683674</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2015-10</v>
+        <v>0.67152777777777783</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" ca="1" si="7"/>
@@ -1109,11 +1111,11 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
         <v>5</v>
@@ -1123,7 +1125,7 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="10"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P11" t="b">
         <f t="shared" ca="1" si="11"/>
